--- a/biology/Zoologie/Battus_madyes/Battus_madyes.xlsx
+++ b/biology/Zoologie/Battus_madyes/Battus_madyes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Battus madyes est une espèce de lépidoptères (papillons) de la famille des Papilionidae, de la sous-famille des Papilioninae et du genre Battus.
 </t>
@@ -511,11 +523,48 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Battus madyes a été décrit par Edward Doubleday en 1846 sous le nom initial de Papilio zetides[1].
-Sous-espèces
-Battus madyes madyes; présent en Bolivie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus madyes a été décrit par Edward Doubleday en 1846 sous le nom initial de Papilio zetides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Battus_madyes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_madyes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Battus madyes madyes; présent en Bolivie.
 Battus madyes adloni (Ehrmann, 1926); présent dans le centre de l'Équateur
 Battus madyes buechei Lamas, 1998; présent dans le centre du Pérou
 Battus madyes callangaensis Möhn, 2001; présent au Pérou
@@ -526,42 +575,7 @@
 Battus madyes montebanus (Dyar, 1913); présent au Pérou
 Battus madyes philetas (Hewitson, 1869); présent dans le sud de l'Équateur
 Battus madyes plinius (Weymer, 1890); présent dans le nord du Pérou
-Battus madyes tucumanus (Rothschild &amp; Jordan, 1906); présent dans le nord-ouest de l'Argentine
-Noms vernaculaires
-Battus madyes se nomme Madyes Swallowtail en anglais.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Battus_madyes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Battus_madyes</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Battus madyes est un moyennement grand papillon d'envergure qui varie de 700 mm) à 183 mm) au corps noir à abdomen jaune, au ailes postérieures très festonnées[2]. Le dessus est noir orné d'une ligne submarginale de chevrons jaunes étirés et confluents aux ailes postérieures.
-Le revers est très largement suffusé de jaune d'or, dans la partie basale et à l'apex des antérieures, sur toutes les ailes postérieures sauf une large bande marginale marron ornée d'une ligne de points jaunes surmontés d'une ligne submarginale de chevrons rouges.
-</t>
+Battus madyes tucumanus (Rothschild &amp; Jordan, 1906); présent dans le nord-ouest de l'Argentine</t>
         </is>
       </c>
     </row>
@@ -586,13 +600,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Aristoloches.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus madyes se nomme Madyes Swallowtail en anglais.
 </t>
         </is>
       </c>
@@ -618,15 +637,123 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus madyes est un moyennement grand papillon d'envergure qui varie de 700 mm) à 183 mm) au corps noir à abdomen jaune, au ailes postérieures très festonnées. Le dessus est noir orné d'une ligne submarginale de chevrons jaunes étirés et confluents aux ailes postérieures.
+Le revers est très largement suffusé de jaune d'or, dans la partie basale et à l'apex des antérieures, sur toutes les ailes postérieures sauf une large bande marginale marron ornée d'une ligne de points jaunes surmontés d'une ligne submarginale de chevrons rouges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Battus_madyes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_madyes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Aristoloches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Battus_madyes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_madyes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Battus madyes est présent dans l'ouest de l'Amérique du Sud, dans les Andes, en Bolivie, au Pérou, en Équateur et en Argentine[1],[3].
-Biotope
-Battus madyes réside dans les Andes entre 1 000 m et 2 500 m[2].
-Protection</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus madyes est présent dans l'ouest de l'Amérique du Sud, dans les Andes, en Bolivie, au Pérou, en Équateur et en Argentine,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Battus_madyes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_madyes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus madyes réside dans les Andes entre 1 000 m et 2 500 m.
+</t>
         </is>
       </c>
     </row>
